--- a/data/trans_bre/P12_1_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 11,47</t>
+          <t>-0,93; 11,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 15,87</t>
+          <t>0,26; 16,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 4,38</t>
+          <t>-1,51; 4,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 110,69</t>
+          <t>-6,41; 128,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,01; 79,65</t>
+          <t>1,11; 84,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,02; 193,04</t>
+          <t>-26,67; 194,81</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,62; 17,86</t>
+          <t>6,87; 17,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,31; 13,67</t>
+          <t>4,72; 14,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 6,71</t>
+          <t>0,17; 7,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 8,52</t>
+          <t>-0,97; 8,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,79; 89,14</t>
+          <t>26,35; 93,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,0; 152,65</t>
+          <t>36,47; 161,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,24; 168,44</t>
+          <t>0,81; 171,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 88,95</t>
+          <t>-6,59; 86,81</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 6,44</t>
+          <t>-1,02; 6,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 14,63</t>
+          <t>2,72; 14,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 9,03</t>
+          <t>-2,05; 8,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 9,02</t>
+          <t>0,93; 9,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-24,02; 148,15</t>
+          <t>-15,66; 162,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,22; 126,89</t>
+          <t>17,09; 131,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 93,17</t>
+          <t>-14,2; 90,05</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,02; 133,56</t>
+          <t>7,48; 134,64</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 10,78</t>
+          <t>-0,59; 10,36</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,85; 23,05</t>
+          <t>13,49; 23,27</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,96; 15,63</t>
+          <t>2,66; 15,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 7,3</t>
+          <t>-4,41; 7,15</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 100,69</t>
+          <t>-2,9; 100,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,08; 128,74</t>
+          <t>59,45; 130,37</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,58; 103,92</t>
+          <t>13,04; 103,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 64,33</t>
+          <t>-23,37; 61,37</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 17,14</t>
+          <t>-0,25; 17,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,63; 22,87</t>
+          <t>8,51; 23,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 10,9</t>
+          <t>-3,73; 11,73</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,89; 18,07</t>
+          <t>2,16; 17,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 84,85</t>
+          <t>-1,82; 82,73</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>54,89; 289,73</t>
+          <t>59,16; 320,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-19,4; 72,85</t>
+          <t>-15,93; 78,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,81; 53,48</t>
+          <t>5,41; 50,64</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 9,61</t>
+          <t>-0,99; 9,47</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,87; 15,41</t>
+          <t>2,62; 15,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,35; 14,87</t>
+          <t>2,28; 14,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 7,14</t>
+          <t>-3,0; 7,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 126,91</t>
+          <t>-8,1; 129,64</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,56; 140,87</t>
+          <t>13,26; 150,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,26; 190,76</t>
+          <t>16,55; 171,43</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,57; 68,87</t>
+          <t>-18,33; 68,04</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,91; 9,43</t>
+          <t>1,63; 9,46</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,04; 10,78</t>
+          <t>1,57; 10,41</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 7,72</t>
+          <t>-0,3; 7,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,5; 44,45</t>
+          <t>7,34; 43,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,4; 93,43</t>
+          <t>11,18; 98,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,68; 73,01</t>
+          <t>8,39; 72,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 67,16</t>
+          <t>-2,14; 68,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>37,57; 263,92</t>
+          <t>37,31; 266,76</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 5,95</t>
+          <t>-2,78; 6,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,71; 11,22</t>
+          <t>2,64; 10,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,27; 6,5</t>
+          <t>1,34; 6,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,32; 10,65</t>
+          <t>4,35; 10,74</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 25,11</t>
+          <t>-9,8; 26,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,0; 79,25</t>
+          <t>13,34; 75,07</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,49; 169,64</t>
+          <t>20,84; 171,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>38,95; 142,82</t>
+          <t>37,33; 140,47</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,36</t>
+          <t>3,6; 7,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,25; 12,25</t>
+          <t>8,16; 12,19</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,78</t>
+          <t>3,41; 6,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,26; 15,94</t>
+          <t>5,24; 16,14</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>19,08; 46,52</t>
+          <t>20,1; 46,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>49,0; 82,55</t>
+          <t>49,14; 82,62</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>25,82; 61,81</t>
+          <t>27,27; 60,89</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>36,39; 117,83</t>
+          <t>36,97; 124,92</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_1_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 11,64</t>
+          <t>-0,58; 11,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,26; 16,69</t>
+          <t>1,69; 16,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 128,2</t>
+          <t>-3,89; 133,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,11; 84,57</t>
+          <t>7,44; 83,48</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,87; 17,93</t>
+          <t>6,49; 18,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 14,01</t>
+          <t>4,23; 13,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,17; 7,11</t>
+          <t>0,39; 6,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,35; 93,89</t>
+          <t>24,85; 92,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,47; 161,49</t>
+          <t>28,83; 149,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 171,3</t>
+          <t>2,9; 176,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 6,98</t>
+          <t>-1,3; 6,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 14,49</t>
+          <t>2,48; 14,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 8,52</t>
+          <t>-2,11; 8,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 162,0</t>
+          <t>-17,86; 163,27</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,09; 131,65</t>
+          <t>14,19; 130,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 90,05</t>
+          <t>-15,18; 88,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 10,36</t>
+          <t>0,19; 11,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>13,49; 23,27</t>
+          <t>12,63; 23,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,66; 15,24</t>
+          <t>3,48; 15,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 100,1</t>
+          <t>0,55; 105,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,45; 130,37</t>
+          <t>55,21; 129,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,04; 103,39</t>
+          <t>16,0; 104,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 17,11</t>
+          <t>-1,14; 16,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,51; 23,14</t>
+          <t>9,07; 23,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 11,73</t>
+          <t>-3,67; 11,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 82,73</t>
+          <t>-4,43; 81,76</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>59,16; 320,97</t>
+          <t>63,52; 305,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,93; 78,08</t>
+          <t>-17,03; 76,5</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 9,47</t>
+          <t>-0,88; 10,31</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,62; 15,75</t>
+          <t>2,85; 16,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,28; 14,7</t>
+          <t>2,41; 14,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-8,1; 129,64</t>
+          <t>-7,19; 144,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>13,26; 150,64</t>
+          <t>15,4; 151,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,55; 171,43</t>
+          <t>15,19; 179,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,63; 9,46</t>
+          <t>0,88; 9,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,57; 10,41</t>
+          <t>1,41; 10,83</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 7,69</t>
+          <t>-0,12; 7,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,18; 98,11</t>
+          <t>6,15; 92,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,39; 72,76</t>
+          <t>6,77; 71,77</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 68,19</t>
+          <t>-0,75; 72,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 6,47</t>
+          <t>-3,19; 6,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,64; 10,99</t>
+          <t>3,03; 11,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,34; 6,55</t>
+          <t>1,24; 6,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 26,86</t>
+          <t>-11,32; 25,78</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>13,34; 75,07</t>
+          <t>15,57; 75,49</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,84; 171,06</t>
+          <t>20,57; 171,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,6; 7,44</t>
+          <t>3,44; 7,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,16; 12,19</t>
+          <t>8,04; 12,23</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,41; 6,7</t>
+          <t>3,24; 6,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>20,1; 46,32</t>
+          <t>19,23; 45,72</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>49,14; 82,62</t>
+          <t>46,86; 81,38</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>27,27; 60,89</t>
+          <t>25,77; 61,59</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P12_1_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se sintió calmado y tranquilo alguna vez o algunas veces</t>
+          <t>Población que se sintió calmada y tranquila alguna vez o algunas veces</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 11,99</t>
+          <t>-1,2; 11,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 16,45</t>
+          <t>0,86; 15,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 4,65</t>
+          <t>-1,32; 4,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 133,0</t>
+          <t>-9,74; 110,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,44; 83,48</t>
+          <t>3,01; 79,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-26,67; 194,81</t>
+          <t>-25,02; 193,04</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,49; 18,2</t>
+          <t>6,62; 17,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,23; 13,6</t>
+          <t>4,31; 13,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,39; 6,74</t>
+          <t>0,35; 6,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 8,38</t>
+          <t>-0,82; 8,52</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,85; 92,92</t>
+          <t>26,79; 89,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,83; 149,38</t>
+          <t>31,0; 152,65</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,9; 176,21</t>
+          <t>5,24; 168,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,59; 86,81</t>
+          <t>-5,64; 88,95</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 6,83</t>
+          <t>-1,65; 6,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 14,83</t>
+          <t>2,18; 14,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 8,28</t>
+          <t>-1,48; 9,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 9,11</t>
+          <t>0,63; 9,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-17,86; 163,27</t>
+          <t>-24,02; 148,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,19; 130,48</t>
+          <t>11,22; 126,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-15,18; 88,3</t>
+          <t>-11,4; 93,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,48; 134,64</t>
+          <t>6,02; 133,56</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,19; 11,08</t>
+          <t>0,09; 10,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,63; 23,12</t>
+          <t>12,85; 23,05</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,48; 15,47</t>
+          <t>2,96; 15,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 7,15</t>
+          <t>-4,61; 7,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 105,22</t>
+          <t>0,58; 100,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>55,21; 129,13</t>
+          <t>57,08; 128,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,0; 104,9</t>
+          <t>13,58; 103,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-23,37; 61,37</t>
+          <t>-24,56; 64,33</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 16,34</t>
+          <t>-1,01; 17,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,07; 23,4</t>
+          <t>8,63; 22,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 11,38</t>
+          <t>-4,67; 10,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,16; 17,05</t>
+          <t>2,89; 18,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 81,76</t>
+          <t>-3,54; 84,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>63,52; 305,27</t>
+          <t>54,89; 289,73</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-17,03; 76,5</t>
+          <t>-19,4; 72,85</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,41; 50,64</t>
+          <t>5,81; 53,48</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 10,31</t>
+          <t>-1,1; 9,61</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,85; 16,09</t>
+          <t>1,87; 15,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,41; 14,84</t>
+          <t>2,35; 14,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 7,22</t>
+          <t>-2,65; 7,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 144,47</t>
+          <t>-9,75; 126,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>15,4; 151,81</t>
+          <t>10,56; 140,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>15,19; 179,11</t>
+          <t>16,26; 190,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-18,33; 68,04</t>
+          <t>-16,57; 68,87</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 9,2</t>
+          <t>1,91; 9,43</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,41; 10,83</t>
+          <t>2,04; 10,78</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 7,96</t>
+          <t>-0,44; 7,72</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,34; 43,75</t>
+          <t>7,5; 44,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,15; 92,1</t>
+          <t>12,4; 93,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,77; 71,77</t>
+          <t>10,68; 73,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 72,01</t>
+          <t>-2,99; 67,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>37,31; 266,76</t>
+          <t>37,57; 263,92</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 6,13</t>
+          <t>-2,82; 5,95</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,03; 11,28</t>
+          <t>2,71; 11,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,24; 6,42</t>
+          <t>1,27; 6,5</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,35; 10,74</t>
+          <t>4,32; 10,65</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-11,32; 25,78</t>
+          <t>-10,04; 25,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>15,57; 75,49</t>
+          <t>14,0; 79,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,57; 171,05</t>
+          <t>20,49; 169,64</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>37,33; 140,47</t>
+          <t>38,95; 142,82</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,44; 7,33</t>
+          <t>3,38; 7,36</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,04; 12,23</t>
+          <t>8,25; 12,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,7</t>
+          <t>3,24; 6,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,24; 16,14</t>
+          <t>5,26; 15,94</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>19,23; 45,72</t>
+          <t>19,08; 46,52</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>46,86; 81,38</t>
+          <t>49,0; 82,55</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>25,77; 61,59</t>
+          <t>25,82; 61,81</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>36,97; 124,92</t>
+          <t>36,39; 117,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_1_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>18,33</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>45,49%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,01; 25,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 4,38</t>
+          <t>-1,34; 4,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,47; 131,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,02; 193,04</t>
+          <t>-25,24; 207,19</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>3,96</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>30,97%</t>
+          <t>32,11%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 8,52</t>
+          <t>-1,0; 8,55</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 88,95</t>
+          <t>-6,15; 90,89</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,1</t>
+          <t>5,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>55,86%</t>
+          <t>57,77%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,63; 9,02</t>
+          <t>0,76; 9,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,02; 133,56</t>
+          <t>6,28; 132,54</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,08</t>
+          <t>18,06</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>89,59%</t>
+          <t>101,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>9,24%</t>
+          <t>-8,21%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,85; 23,05</t>
+          <t>11,05; 24,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 7,3</t>
+          <t>-9,01; 4,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>57,08; 128,74</t>
+          <t>51,95; 167,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-24,56; 64,33</t>
+          <t>-48,84; 40,8</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,94</t>
+          <t>10,29</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>26,05%</t>
+          <t>26,82%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,89; 18,07</t>
+          <t>3,2; 18,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,81; 53,48</t>
+          <t>7,03; 53,79</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,22</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>16,61%</t>
+          <t>17,86%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 7,14</t>
+          <t>-2,49; 7,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,57; 68,87</t>
+          <t>-16,2; 70,07</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>19,14</t>
+          <t>27,03</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>105,06%</t>
+          <t>151,94%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,5; 44,45</t>
+          <t>8,08; 57,45</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>37,57; 263,92</t>
+          <t>42,11; 357,6</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>7,38</t>
+          <t>9,56</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>78,36%</t>
+          <t>128,88%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,32; 10,65</t>
+          <t>5,87; 14,96</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>38,95; 142,82</t>
+          <t>55,41; 419,17</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>8,21</t>
+          <t>10,87</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>60,31%</t>
+          <t>86,46%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,26; 15,94</t>
+          <t>5,56; 24,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>36,39; 117,83</t>
+          <t>41,75; 215,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P12_1_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P12_1_R-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 11,47</t>
+          <t>-0,77; 11,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,01; 25,76</t>
+          <t>9,84; 26,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,86; 15,87</t>
+          <t>0,32; 16,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 4,34</t>
+          <t>-1,51; 4,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-9,74; 110,69</t>
+          <t>-5,26; 120,07</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,47; 131,24</t>
+          <t>36,57; 136,03</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,01; 79,65</t>
+          <t>0,96; 78,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 207,19</t>
+          <t>-26,42; 228,41</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,62; 17,86</t>
+          <t>6,93; 18,28</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,31; 13,67</t>
+          <t>4,49; 13,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 6,71</t>
+          <t>0,52; 6,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 8,55</t>
+          <t>-0,69; 8,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,79; 89,14</t>
+          <t>26,75; 92,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,0; 152,65</t>
+          <t>30,43; 151,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>5,24; 168,44</t>
+          <t>3,83; 164,49</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 90,89</t>
+          <t>-5,4; 93,66</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,65; 6,44</t>
+          <t>-1,69; 6,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,18; 14,63</t>
+          <t>2,89; 14,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,48; 9,03</t>
+          <t>-1,54; 8,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,76; 9,1</t>
+          <t>1,01; 9,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-24,02; 148,15</t>
+          <t>-22,23; 169,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,22; 126,89</t>
+          <t>18,13; 137,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,4; 93,17</t>
+          <t>-12,7; 86,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,28; 132,54</t>
+          <t>7,92; 145,47</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,09; 10,78</t>
+          <t>-0,09; 10,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,05; 24,54</t>
+          <t>11,8; 23,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,96; 15,63</t>
+          <t>2,96; 15,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,01; 4,85</t>
+          <t>-9,7; 4,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 100,69</t>
+          <t>-1,16; 100,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>51,95; 167,67</t>
+          <t>54,96; 162,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,58; 103,92</t>
+          <t>13,25; 107,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-48,84; 40,8</t>
+          <t>-50,19; 36,02</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 17,14</t>
+          <t>-1,11; 16,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,63; 22,87</t>
+          <t>8,06; 23,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 10,9</t>
+          <t>-3,83; 11,83</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,2; 18,31</t>
+          <t>2,44; 17,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,54; 84,85</t>
+          <t>-4,03; 79,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>54,89; 289,73</t>
+          <t>58,46; 296,56</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-19,4; 72,85</t>
+          <t>-17,21; 77,19</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>7,03; 53,79</t>
+          <t>5,68; 54,43</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 9,61</t>
+          <t>-1,16; 10,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,87; 15,41</t>
+          <t>2,68; 15,77</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,35; 14,87</t>
+          <t>1,92; 14,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 7,3</t>
+          <t>-2,25; 7,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 126,91</t>
+          <t>-11,97; 135,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>10,56; 140,87</t>
+          <t>12,17; 143,33</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,26; 190,76</t>
+          <t>12,19; 177,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-16,2; 70,07</t>
+          <t>-15,4; 69,22</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,91; 9,43</t>
+          <t>1,79; 9,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,04; 10,78</t>
+          <t>1,91; 10,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 7,72</t>
+          <t>-0,58; 7,94</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>8,08; 57,45</t>
+          <t>7,94; 50,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,4; 93,43</t>
+          <t>12,78; 95,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,68; 73,01</t>
+          <t>9,93; 71,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 67,16</t>
+          <t>-3,71; 70,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>42,11; 357,6</t>
+          <t>42,91; 330,24</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,82; 5,95</t>
+          <t>-3,11; 5,66</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,71; 11,22</t>
+          <t>2,75; 11,52</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1,27; 6,5</t>
+          <t>1,37; 6,59</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,87; 14,96</t>
+          <t>5,38; 14,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 25,11</t>
+          <t>-11,1; 23,27</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>14,0; 79,25</t>
+          <t>14,62; 77,2</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>20,49; 169,64</t>
+          <t>18,27; 174,65</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>55,41; 419,17</t>
+          <t>50,93; 411,15</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,38; 7,36</t>
+          <t>3,61; 7,31</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>8,25; 12,25</t>
+          <t>8,18; 12,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,24; 6,78</t>
+          <t>3,45; 6,67</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,56; 24,1</t>
+          <t>5,59; 25,63</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>19,08; 46,52</t>
+          <t>19,77; 45,95</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>49,0; 82,55</t>
+          <t>48,25; 80,52</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>25,82; 61,81</t>
+          <t>27,82; 62,09</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>41,75; 215,85</t>
+          <t>42,47; 225,35</t>
         </is>
       </c>
     </row>
